--- a/設施支援.xlsx
+++ b/設施支援.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0D68E1B-25AE-4DAC-B9B4-10620D20A0D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B8DF0C-17B1-4EE3-9893-280F75B0356A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="設施支援" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>support_id	support_category_name	support_category_description</t>
+    <t>無</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">	無	無任何支援</t>
+    <t>無任何支援</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">	孕婦	孕婦可搭乘</t>
+    <t>孕婦可搭乘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">	輪椅	可乘坐輪椅搭乘</t>
+    <t>孕婦</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>輪椅</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>可乘坐輪椅搭乘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ride_support_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ride_support_name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ride_support_description</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -982,35 +1006,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="27.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>